--- a/data/tumor-size/AOT00043109_size-measurements.xlsx
+++ b/data/tumor-size/AOT00043109_size-measurements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="14">
   <si>
     <t>date</t>
   </si>
@@ -50,9 +50,6 @@
     <t>tumor.width.(mm)</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>IgG-1</t>
   </si>
   <si>
@@ -69,9 +66,6 @@
   </si>
   <si>
     <t>not present</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -398,8 +392,8 @@
   <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,11 +1242,11 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>8</v>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1324,11 +1318,11 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>8</v>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1343,11 +1337,11 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>8</v>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1636,16 +1630,16 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -1656,10 +1650,10 @@
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G75" s="1">
         <v>5.7</v>
@@ -1676,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G76" s="1">
         <v>5.3</v>
@@ -1696,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G77" s="1">
         <v>4.5999999999999996</v>
@@ -1716,10 +1710,10 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G78" s="1">
         <v>6.5</v>
@@ -1736,10 +1730,10 @@
         <v>3</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G79" s="1">
         <v>5.0999999999999996</v>
@@ -1756,16 +1750,16 @@
         <v>1</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -1776,10 +1770,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G81" s="1">
         <v>4.0999999999999996</v>
@@ -1796,10 +1790,10 @@
         <v>3</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G82" s="1">
         <v>4.9000000000000004</v>
@@ -1816,16 +1810,16 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,16 +1830,16 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,10 +1850,10 @@
         <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85" s="1">
         <v>4.8</v>
@@ -1876,19 +1870,19 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -1899,10 +1893,10 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E87" s="1">
         <v>22.1</v>
@@ -1922,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E88" s="1">
         <v>23.5</v>
@@ -1945,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E89" s="1">
         <v>22.1</v>
@@ -1968,10 +1962,10 @@
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E90" s="1">
         <v>23.2</v>
@@ -1991,10 +1985,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E91" s="1">
         <v>23.1</v>
@@ -2014,19 +2008,19 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,10 +2031,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E93" s="1">
         <v>24.27</v>
@@ -2060,19 +2054,19 @@
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -2083,19 +2077,19 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -2106,19 +2100,19 @@
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -2129,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E97" s="1">
         <v>22.9</v>
@@ -2152,17 +2146,17 @@
         <v>1</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E98" s="1"/>
       <c r="G98" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -2173,10 +2167,10 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G99" s="1">
         <v>4.2</v>
@@ -2193,10 +2187,10 @@
         <v>3</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G100" s="1">
         <v>6.2</v>
@@ -2213,10 +2207,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G101" s="1">
         <v>5.5</v>
@@ -2233,10 +2227,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G102" s="1">
         <v>7.5</v>
@@ -2253,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G103" s="1">
         <v>7.7</v>
@@ -2273,10 +2267,10 @@
         <v>1</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G104" s="1">
         <v>11.3</v>
@@ -2293,17 +2287,17 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -2314,10 +2308,10 @@
         <v>3</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G106" s="1">
         <v>5.2</v>
@@ -2334,16 +2328,16 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -2354,16 +2348,16 @@
         <v>2</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,10 +2368,10 @@
         <v>3</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G109" s="1">
         <v>3.2</v>
@@ -2394,16 +2388,16 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -2414,10 +2408,10 @@
         <v>2</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G111" s="1">
         <v>5.2</v>
@@ -2434,10 +2428,10 @@
         <v>3</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G112" s="1">
         <v>7.7</v>
@@ -2454,10 +2448,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G113" s="1">
         <v>6.4</v>
@@ -2474,10 +2468,10 @@
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G114" s="1">
         <v>10.1</v>
@@ -2494,10 +2488,10 @@
         <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G115" s="1">
         <v>9.5</v>
@@ -2514,16 +2508,16 @@
         <v>1</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -2534,10 +2528,10 @@
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G117" s="1">
         <v>5.2</v>
@@ -2554,16 +2548,16 @@
         <v>3</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -2574,16 +2568,16 @@
         <v>1</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -2594,16 +2588,16 @@
         <v>2</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -2614,16 +2608,16 @@
         <v>3</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="G121" s="1">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -2634,19 +2628,19 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -2657,10 +2651,10 @@
         <v>2</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E123">
         <v>21.84</v>
@@ -2680,10 +2674,10 @@
         <v>3</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E124">
         <v>23.4</v>
@@ -2703,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125">
         <v>21.8</v>
@@ -2726,10 +2720,10 @@
         <v>2</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E126">
         <v>23.09</v>
@@ -2749,10 +2743,10 @@
         <v>3</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E127">
         <v>22.3</v>
@@ -2772,19 +2766,19 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -2795,10 +2789,10 @@
         <v>2</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E129">
         <v>25.01</v>
@@ -2818,19 +2812,19 @@
         <v>3</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -2841,19 +2835,19 @@
         <v>1</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -2864,19 +2858,19 @@
         <v>2</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -2887,19 +2881,19 @@
         <v>3</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E133">
         <v>19.8</v>
       </c>
       <c r="G133">
-        <v>19.18</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="H133" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
